--- a/Lab1B/springcollision.xlsx
+++ b/Lab1B/springcollision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\source\repos\ryli123\Lab1B\Lab1B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E936C650-1EE8-4D37-973C-C55DCACC45D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B1E91839-99E9-415E-AFAD-D0095456D3D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395"/>
   </bookViews>
@@ -28,13 +28,7 @@
     <t>sx1</t>
   </si>
   <si>
-    <t>sy1</t>
-  </si>
-  <si>
     <t>sx2</t>
-  </si>
-  <si>
-    <t>sy2</t>
   </si>
   <si>
     <t>vx1</t>
@@ -71,6 +65,12 @@
   </si>
   <si>
     <t xml:space="preserve"> F2y</t>
+  </si>
+  <si>
+    <t>sy1 (above)</t>
+  </si>
+  <si>
+    <t>sy2 (Below)</t>
   </si>
 </sst>
 </file>
@@ -627,53 +627,373 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>springcollision!$D$1</c:f>
-              <c:strCache>
+            <c:v>upper bound 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="E7E6E6">
+                  <a:lumMod val="90000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>springcollision!$B$4:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>-0.10299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.5100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.7499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.6400000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.6299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.6299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.6299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.6299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.5400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.2300000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.92E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.6200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.3099999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.3899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.09E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-7.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.6999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.06E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.37E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.49E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.61E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.3599999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>springcollision!$D$4:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>5.5899999999999991E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9999999999999742E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9999999999999395E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8.000000000000021E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.3000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.8000000000000031E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8.2000000000000024E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.03E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.2100000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.3400000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.43E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.4600000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.43E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.3500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.2200000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.0500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-8.4000000000000012E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-6.1000000000000013E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.6000000000000025E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.0000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.9999999999999395E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.9999999999999742E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2999999999999975E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D4F6-4F9D-B624-4C6038B6735D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>lower bound 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>springcollision!$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
+                <c:pt idx="0">
+                  <c:v>2.3599999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>springcollision!$E$4:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0.1173</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.88E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2399999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1400000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1400000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1400000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1400000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8099999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5599999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3199999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.1100000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.9299999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.7100000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.6800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.7100000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.9200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.0900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.3000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.5300000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.7800000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.0400000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.1400000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.1499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.2399999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.8699999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D4F6-4F9D-B624-4C6038B6735D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>upper bound 2</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -691,27 +1011,27 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>springcollision!$B$2:$B$34</c:f>
+              <c:f>springcollision!$F$4:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>-3.8269000000000002</c:v>
+                  <c:v>-0.10299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.53900000000000003</c:v>
+                  <c:v>-4.5100000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.10299999999999999</c:v>
+                  <c:v>-3.7499999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.5100000000000001E-2</c:v>
+                  <c:v>-3.6400000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.7499999999999999E-2</c:v>
+                  <c:v>-3.6299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.6400000000000002E-2</c:v>
+                  <c:v>-3.6299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-3.6299999999999999E-2</c:v>
@@ -720,187 +1040,163 @@
                   <c:v>-3.6299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3.6299999999999999E-2</c:v>
+                  <c:v>-3.5400000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.6299999999999999E-2</c:v>
+                  <c:v>-3.2300000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3.5400000000000001E-2</c:v>
+                  <c:v>-2.92E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.2300000000000002E-2</c:v>
+                  <c:v>-2.6200000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.92E-2</c:v>
+                  <c:v>-2.3099999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2.6200000000000001E-2</c:v>
+                  <c:v>-0.02</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2.3099999999999999E-2</c:v>
+                  <c:v>-1.7000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.02</c:v>
+                  <c:v>-1.3899999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.7000000000000001E-2</c:v>
+                  <c:v>-1.09E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.3899999999999999E-2</c:v>
+                  <c:v>-7.7999999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.09E-2</c:v>
+                  <c:v>-4.7000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-7.7999999999999996E-3</c:v>
+                  <c:v>-1.6999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-4.7000000000000002E-3</c:v>
+                  <c:v>1.4E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-1.6999999999999999E-3</c:v>
+                  <c:v>4.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.4E-3</c:v>
+                  <c:v>7.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.4999999999999997E-3</c:v>
+                  <c:v>1.06E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.4999999999999997E-3</c:v>
+                  <c:v>1.37E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.06E-2</c:v>
+                  <c:v>1.49E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.37E-2</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.49E-2</c:v>
+                  <c:v>1.61E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.61E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
                   <c:v>2.3599999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7.7799999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.47060000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>springcollision!$D$2:$D$34</c:f>
+              <c:f>springcollision!$H$4:$H$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>3.1806999999999999</c:v>
+                  <c:v>-0.1173</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42180000000000001</c:v>
+                  <c:v>-6.88E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5899999999999991E-2</c:v>
+                  <c:v>-6.2399999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.4000000000000003E-3</c:v>
+                  <c:v>-6.1499999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9999999999999742E-4</c:v>
+                  <c:v>-6.1400000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9999999999999395E-5</c:v>
+                  <c:v>-6.1400000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-6.1400000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-6.1400000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>-6.0600000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>-5.8099999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-8.000000000000021E-4</c:v>
+                  <c:v>-5.5599999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.3000000000000008E-3</c:v>
+                  <c:v>-5.3199999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-5.8000000000000031E-3</c:v>
+                  <c:v>-5.1100000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-8.2000000000000024E-3</c:v>
+                  <c:v>-4.9299999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.03E-2</c:v>
+                  <c:v>-4.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.2100000000000003E-2</c:v>
+                  <c:v>-4.7100000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.3400000000000002E-2</c:v>
+                  <c:v>-4.6800000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.43E-2</c:v>
+                  <c:v>-4.7100000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.4600000000000002E-2</c:v>
+                  <c:v>-4.7899999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.43E-2</c:v>
+                  <c:v>-4.9200000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1.3500000000000002E-2</c:v>
+                  <c:v>-5.0900000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-1.2200000000000003E-2</c:v>
+                  <c:v>-5.3000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1.0500000000000002E-2</c:v>
+                  <c:v>-5.5300000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-8.4000000000000012E-3</c:v>
+                  <c:v>-5.7800000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-6.1000000000000013E-3</c:v>
+                  <c:v>-6.0400000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-3.6000000000000025E-3</c:v>
+                  <c:v>-6.1400000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1.0000000000000009E-3</c:v>
+                  <c:v>-6.1499999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>-6.2399999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.9999999999999395E-5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>9.9999999999999742E-4</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.2999999999999975E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5.2699999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.38179999999999997</c:v>
+                  <c:v>-6.8699999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -908,27 +1204,22 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5D51-4580-9DD1-0772EF932496}"/>
+              <c16:uniqueId val="{0000000B-5D51-4580-9DD1-0772EF932496}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:idx val="4"/>
+          <c:order val="4"/>
           <c:tx>
-            <c:strRef>
-              <c:f>springcollision!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
+            <c:v>lower bound 2</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="bg2">
+                <a:srgbClr val="E7E6E6">
                   <a:lumMod val="90000"/>
-                </a:schemeClr>
+                </a:srgbClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -939,27 +1230,27 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>springcollision!$B$2:$B$34</c:f>
+              <c:f>springcollision!$F$4:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>-3.8269000000000002</c:v>
+                  <c:v>-0.10299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.53900000000000003</c:v>
+                  <c:v>-4.5100000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.10299999999999999</c:v>
+                  <c:v>-3.7499999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.5100000000000001E-2</c:v>
+                  <c:v>-3.6400000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.7499999999999999E-2</c:v>
+                  <c:v>-3.6299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.6400000000000002E-2</c:v>
+                  <c:v>-3.6299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-3.6299999999999999E-2</c:v>
@@ -968,187 +1259,163 @@
                   <c:v>-3.6299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3.6299999999999999E-2</c:v>
+                  <c:v>-3.5400000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.6299999999999999E-2</c:v>
+                  <c:v>-3.2300000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3.5400000000000001E-2</c:v>
+                  <c:v>-2.92E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.2300000000000002E-2</c:v>
+                  <c:v>-2.6200000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.92E-2</c:v>
+                  <c:v>-2.3099999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2.6200000000000001E-2</c:v>
+                  <c:v>-0.02</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2.3099999999999999E-2</c:v>
+                  <c:v>-1.7000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.02</c:v>
+                  <c:v>-1.3899999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.7000000000000001E-2</c:v>
+                  <c:v>-1.09E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.3899999999999999E-2</c:v>
+                  <c:v>-7.7999999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.09E-2</c:v>
+                  <c:v>-4.7000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-7.7999999999999996E-3</c:v>
+                  <c:v>-1.6999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-4.7000000000000002E-3</c:v>
+                  <c:v>1.4E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-1.6999999999999999E-3</c:v>
+                  <c:v>4.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.4E-3</c:v>
+                  <c:v>7.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.4999999999999997E-3</c:v>
+                  <c:v>1.06E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.4999999999999997E-3</c:v>
+                  <c:v>1.37E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.06E-2</c:v>
+                  <c:v>1.49E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.37E-2</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.49E-2</c:v>
+                  <c:v>1.61E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.61E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
                   <c:v>2.3599999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7.7799999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.47060000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>springcollision!$E$2:$E$34</c:f>
+              <c:f>springcollision!$I$4:$I$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>3.2420999999999998</c:v>
+                  <c:v>-5.5899999999999991E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.48320000000000002</c:v>
+                  <c:v>-7.4000000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1173</c:v>
+                  <c:v>-9.9999999999999742E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.88E-2</c:v>
+                  <c:v>-9.9999999999999395E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.2399999999999997E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.1499999999999999E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.1400000000000003E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.1400000000000003E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.1400000000000003E-2</c:v>
+                  <c:v>8.000000000000021E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.1400000000000003E-2</c:v>
+                  <c:v>3.3000000000000008E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.0600000000000001E-2</c:v>
+                  <c:v>5.8000000000000031E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.8099999999999999E-2</c:v>
+                  <c:v>8.2000000000000024E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.5599999999999997E-2</c:v>
+                  <c:v>1.03E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.3199999999999997E-2</c:v>
+                  <c:v>1.2100000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.1100000000000007E-2</c:v>
+                  <c:v>1.3400000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9299999999999997E-2</c:v>
+                  <c:v>1.43E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.8000000000000001E-2</c:v>
+                  <c:v>1.4600000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.7100000000000003E-2</c:v>
+                  <c:v>1.43E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.6800000000000001E-2</c:v>
+                  <c:v>1.3500000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7100000000000003E-2</c:v>
+                  <c:v>1.2200000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.7899999999999998E-2</c:v>
+                  <c:v>1.0500000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9200000000000001E-2</c:v>
+                  <c:v>8.4000000000000012E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.0900000000000001E-2</c:v>
+                  <c:v>6.1000000000000013E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.3000000000000005E-2</c:v>
+                  <c:v>3.6000000000000025E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.5300000000000002E-2</c:v>
+                  <c:v>1.0000000000000009E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.7800000000000004E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.0400000000000002E-2</c:v>
+                  <c:v>-9.9999999999999395E-5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.1400000000000003E-2</c:v>
+                  <c:v>-9.9999999999999742E-4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.1499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.2399999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6.8699999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.11410000000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.44319999999999998</c:v>
+                  <c:v>-7.2999999999999975E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1156,27 +1423,28 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5D51-4580-9DD1-0772EF932496}"/>
+              <c16:uniqueId val="{0000000C-5D51-4580-9DD1-0772EF932496}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="3"/>
+          <c:idx val="6"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>springcollision!$H$1</c:f>
+              <c:f>springcollision!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sy1 (above)</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="90000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1187,27 +1455,27 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>springcollision!$F$2:$F$34</c:f>
+              <c:f>springcollision!$B$4:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>-3.8269000000000002</c:v>
+                  <c:v>-0.10299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.53900000000000003</c:v>
+                  <c:v>-4.5100000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.10299999999999999</c:v>
+                  <c:v>-3.7499999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.5100000000000001E-2</c:v>
+                  <c:v>-3.6400000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.7499999999999999E-2</c:v>
+                  <c:v>-3.6299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.6400000000000002E-2</c:v>
+                  <c:v>-3.6299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-3.6299999999999999E-2</c:v>
@@ -1216,187 +1484,163 @@
                   <c:v>-3.6299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3.6299999999999999E-2</c:v>
+                  <c:v>-3.5400000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.6299999999999999E-2</c:v>
+                  <c:v>-3.2300000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3.5400000000000001E-2</c:v>
+                  <c:v>-2.92E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.2300000000000002E-2</c:v>
+                  <c:v>-2.6200000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.92E-2</c:v>
+                  <c:v>-2.3099999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2.6200000000000001E-2</c:v>
+                  <c:v>-0.02</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2.3099999999999999E-2</c:v>
+                  <c:v>-1.7000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.02</c:v>
+                  <c:v>-1.3899999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.7000000000000001E-2</c:v>
+                  <c:v>-1.09E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.3899999999999999E-2</c:v>
+                  <c:v>-7.7999999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.09E-2</c:v>
+                  <c:v>-4.7000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-7.7999999999999996E-3</c:v>
+                  <c:v>-1.6999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-4.7000000000000002E-3</c:v>
+                  <c:v>1.4E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-1.6999999999999999E-3</c:v>
+                  <c:v>4.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.4E-3</c:v>
+                  <c:v>7.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.4999999999999997E-3</c:v>
+                  <c:v>1.06E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.4999999999999997E-3</c:v>
+                  <c:v>1.37E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.06E-2</c:v>
+                  <c:v>1.49E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.37E-2</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.49E-2</c:v>
+                  <c:v>1.61E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.61E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
                   <c:v>2.3599999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7.7799999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.47060000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>springcollision!$H$2:$H$34</c:f>
+              <c:f>springcollision!$C$4:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>-3.2420999999999998</c:v>
+                  <c:v>8.6599999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.48320000000000002</c:v>
+                  <c:v>3.8100000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.1173</c:v>
+                  <c:v>3.1699999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.88E-2</c:v>
+                  <c:v>3.0800000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-6.2399999999999997E-2</c:v>
+                  <c:v>3.0700000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-6.1499999999999999E-2</c:v>
+                  <c:v>3.0700000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-6.1400000000000003E-2</c:v>
+                  <c:v>3.0700000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-6.1400000000000003E-2</c:v>
+                  <c:v>3.0700000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-6.1400000000000003E-2</c:v>
+                  <c:v>2.9899999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-6.1400000000000003E-2</c:v>
+                  <c:v>2.7400000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-6.0600000000000001E-2</c:v>
+                  <c:v>2.4899999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-5.8099999999999999E-2</c:v>
+                  <c:v>2.2499999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-5.5599999999999997E-2</c:v>
+                  <c:v>2.0400000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-5.3199999999999997E-2</c:v>
+                  <c:v>1.8599999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-5.1100000000000007E-2</c:v>
+                  <c:v>1.7299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-4.9299999999999997E-2</c:v>
+                  <c:v>1.6400000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-4.8000000000000001E-2</c:v>
+                  <c:v>1.61E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-4.7100000000000003E-2</c:v>
+                  <c:v>1.6400000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-4.6800000000000001E-2</c:v>
+                  <c:v>1.72E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-4.7100000000000003E-2</c:v>
+                  <c:v>1.8499999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-4.7899999999999998E-2</c:v>
+                  <c:v>2.0199999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-4.9200000000000001E-2</c:v>
+                  <c:v>2.23E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-5.0900000000000001E-2</c:v>
+                  <c:v>2.46E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-5.3000000000000005E-2</c:v>
+                  <c:v>2.7099999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-5.5300000000000002E-2</c:v>
+                  <c:v>2.9700000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-5.7800000000000004E-2</c:v>
+                  <c:v>3.0700000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-6.0400000000000002E-2</c:v>
+                  <c:v>3.0800000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-6.1400000000000003E-2</c:v>
+                  <c:v>3.1699999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-6.1499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-6.2399999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-6.8699999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-0.11410000000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-0.44319999999999998</c:v>
+                  <c:v>3.7999999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1404,27 +1648,31 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-5D51-4580-9DD1-0772EF932496}"/>
+              <c16:uniqueId val="{0000000E-5D51-4580-9DD1-0772EF932496}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
-          <c:order val="4"/>
+          <c:idx val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>springcollision!$I$1</c:f>
+              <c:f>springcollision!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sy2 (Below)</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="90000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:sysClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1435,27 +1683,27 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>springcollision!$F$2:$F$34</c:f>
+              <c:f>springcollision!$F$4:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>-3.8269000000000002</c:v>
+                  <c:v>-0.10299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.53900000000000003</c:v>
+                  <c:v>-4.5100000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.10299999999999999</c:v>
+                  <c:v>-3.7499999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.5100000000000001E-2</c:v>
+                  <c:v>-3.6400000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.7499999999999999E-2</c:v>
+                  <c:v>-3.6299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.6400000000000002E-2</c:v>
+                  <c:v>-3.6299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-3.6299999999999999E-2</c:v>
@@ -1464,187 +1712,163 @@
                   <c:v>-3.6299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3.6299999999999999E-2</c:v>
+                  <c:v>-3.5400000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.6299999999999999E-2</c:v>
+                  <c:v>-3.2300000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3.5400000000000001E-2</c:v>
+                  <c:v>-2.92E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.2300000000000002E-2</c:v>
+                  <c:v>-2.6200000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.92E-2</c:v>
+                  <c:v>-2.3099999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2.6200000000000001E-2</c:v>
+                  <c:v>-0.02</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2.3099999999999999E-2</c:v>
+                  <c:v>-1.7000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.02</c:v>
+                  <c:v>-1.3899999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.7000000000000001E-2</c:v>
+                  <c:v>-1.09E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.3899999999999999E-2</c:v>
+                  <c:v>-7.7999999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.09E-2</c:v>
+                  <c:v>-4.7000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-7.7999999999999996E-3</c:v>
+                  <c:v>-1.6999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-4.7000000000000002E-3</c:v>
+                  <c:v>1.4E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-1.6999999999999999E-3</c:v>
+                  <c:v>4.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.4E-3</c:v>
+                  <c:v>7.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.4999999999999997E-3</c:v>
+                  <c:v>1.06E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.4999999999999997E-3</c:v>
+                  <c:v>1.37E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.06E-2</c:v>
+                  <c:v>1.49E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.37E-2</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.49E-2</c:v>
+                  <c:v>1.61E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.61E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
                   <c:v>2.3599999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7.7799999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.47060000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>springcollision!$I$2:$I$34</c:f>
+              <c:f>springcollision!$G$4:$G$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>-3.1806999999999999</c:v>
+                  <c:v>-8.6599999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.42180000000000001</c:v>
+                  <c:v>-3.8100000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.5899999999999991E-2</c:v>
+                  <c:v>-3.1699999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-7.4000000000000003E-3</c:v>
+                  <c:v>-3.0800000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-9.9999999999999742E-4</c:v>
+                  <c:v>-3.0700000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-9.9999999999999395E-5</c:v>
+                  <c:v>-3.0700000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-3.0700000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-3.0700000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>-2.9899999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>-2.7400000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.000000000000021E-4</c:v>
+                  <c:v>-2.4899999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.3000000000000008E-3</c:v>
+                  <c:v>-2.2499999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.8000000000000031E-3</c:v>
+                  <c:v>-2.0400000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.2000000000000024E-3</c:v>
+                  <c:v>-1.8599999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.03E-2</c:v>
+                  <c:v>-1.7299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.2100000000000003E-2</c:v>
+                  <c:v>-1.6400000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3400000000000002E-2</c:v>
+                  <c:v>-1.61E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.43E-2</c:v>
+                  <c:v>-1.6400000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.4600000000000002E-2</c:v>
+                  <c:v>-1.72E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.43E-2</c:v>
+                  <c:v>-1.8499999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.3500000000000002E-2</c:v>
+                  <c:v>-2.0199999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2200000000000003E-2</c:v>
+                  <c:v>-2.23E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0500000000000002E-2</c:v>
+                  <c:v>-2.46E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.4000000000000012E-3</c:v>
+                  <c:v>-2.7099999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.1000000000000013E-3</c:v>
+                  <c:v>-2.9700000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.6000000000000025E-3</c:v>
+                  <c:v>-3.0700000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0000000000000009E-3</c:v>
+                  <c:v>-3.0800000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>-3.1699999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-9.9999999999999395E-5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-9.9999999999999742E-4</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-7.2999999999999975E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-5.2699999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-0.38179999999999997</c:v>
+                  <c:v>-3.7999999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1652,508 +1876,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-5D51-4580-9DD1-0772EF932496}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>springcollision!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>sy2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>springcollision!$F$2:$F$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>-3.8269000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.53900000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.10299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-4.5100000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-3.7499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-3.6400000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-3.6299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-3.6299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-3.6299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-3.6299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-3.5400000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-3.2300000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-2.92E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-2.6200000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-2.3099999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.02</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-1.7000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-1.3899999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-1.09E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-7.7999999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-4.7000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-1.6999999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.4E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.06E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.37E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.49E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.61E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.3599999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7.7799999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.47060000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>springcollision!$G$2:$G$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>-3.2113999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.45250000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-8.6599999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-3.8100000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-3.1699999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-3.0800000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-3.0700000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-3.0700000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-3.0700000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-3.0700000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-2.9899999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-2.7400000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-2.4899999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-2.2499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-2.0400000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-1.8599999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-1.7299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-1.6400000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-1.61E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-1.6400000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-1.72E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-1.8499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-2.0199999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-2.23E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-2.46E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-2.7099999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-2.9700000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-3.0700000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-3.0800000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-3.1699999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-3.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-8.3400000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-0.41249999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5D51-4580-9DD1-0772EF932496}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>springcollision!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>sy1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>springcollision!$B$2:$B$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>-3.8269000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.53900000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.10299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-4.5100000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-3.7499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-3.6400000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-3.6299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-3.6299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-3.6299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-3.6299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-3.5400000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-3.2300000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-2.92E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-2.6200000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-2.3099999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.02</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-1.7000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-1.3899999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-1.09E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-7.7999999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-4.7000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-1.6999999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.4E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.06E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.37E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.49E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.61E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.3599999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7.7799999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.47060000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>springcollision!$C$2:$C$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>3.2113999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.45250000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.6599999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.8100000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.1699999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0800000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.0700000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.0700000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.0700000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.0700000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.9899999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.7400000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.4899999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.2499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.0400000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.8599999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.7299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6400000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.61E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.6400000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.72E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.8499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.0199999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.23E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.46E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.7099999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.9700000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.0700000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.0800000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.1699999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8.3400000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.41249999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5D51-4580-9DD1-0772EF932496}"/>
+              <c16:uniqueId val="{0000000D-5D51-4580-9DD1-0772EF932496}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2165,13 +1888,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="653119480"/>
-        <c:axId val="653121120"/>
+        <c:axId val="653114560"/>
+        <c:axId val="653122104"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="3"/>
+                <c:idx val="2"/>
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
@@ -2193,26 +1916,16 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent4"/>
+                      <a:schemeClr val="bg2">
+                        <a:lumMod val="90000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
                 <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent4"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
+                  <c:symbol val="none"/>
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
@@ -2445,7 +2158,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-5D51-4580-9DD1-0772EF932496}"/>
+                    <c16:uniqueId val="{0000000A-5D51-4580-9DD1-0772EF932496}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2454,7 +2167,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="653119480"/>
+        <c:axId val="653114560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2474,18 +2187,70 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>x (m) =&gt;</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2503,20 +2268,20 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="653121120"/>
+        <c:crossAx val="653122104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="653121120"/>
+        <c:axId val="653122104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2536,18 +2301,70 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>y (m) =&gt;</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2565,22 +2382,24 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="653119480"/>
+        <c:crossAx val="653114560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -2607,9 +2426,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -2625,12 +2444,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3213,16 +3027,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>269080</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>126206</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>550067</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>107155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>307180</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>588167</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>135730</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3545,12 +3359,298 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3563,49 +3663,49 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>14</v>
-      </c>
-      <c r="T1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.45">

--- a/Lab1B/springcollision.xlsx
+++ b/Lab1B/springcollision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\source\repos\ryli123\Lab1B\Lab1B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B1E91839-99E9-415E-AFAD-D0095456D3D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2AE38846-8853-4A5B-8160-3163707AB7FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395"/>
   </bookViews>
@@ -2245,7 +2245,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
+        <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
